--- a/Test Case Template.xlsx
+++ b/Test Case Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\001 Live Tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{646A59AE-801F-483B-9893-C0862658C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D62E01-4115-4F6A-9E48-23863B2F2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42B6BE39-C700-4B85-A7B5-78554C539B19}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0DE554-DD68-492A-B356-D1795EFDE9BC}">
   <dimension ref="A2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,6 +510,7 @@
     <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
